--- a/Resources/Model Tracker.xlsx
+++ b/Resources/Model Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smith/Desktop/GitHub Repos/Wine-Quality-Snobs/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70C25CF-A141-3F4C-985C-44A7517BC3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ED5395-011C-D14A-954E-F40BBEF71FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="2760" windowWidth="28040" windowHeight="17440" xr2:uid="{951ABD57-AA22-DF4F-B64E-CD7AECC104B9}"/>
+    <workbookView xWindow="15840" yWindow="2780" windowWidth="28040" windowHeight="17440" xr2:uid="{951ABD57-AA22-DF4F-B64E-CD7AECC104B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
   <si>
     <t>Model</t>
   </si>
@@ -238,13 +238,84 @@
   </si>
   <si>
     <t>0.79/0.64/0.7</t>
+  </si>
+  <si>
+    <t>Layer 1 Units</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Layer 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Units</t>
+    </r>
+  </si>
+  <si>
+    <t>Output Layer Activation</t>
+  </si>
+  <si>
+    <t>Trial Number</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
+  </si>
+  <si>
+    <t>Compile Crossentropy</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>softmax</t>
+  </si>
+  <si>
+    <t>Unionized Neural Model Trials (50 Epochs)</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>softmax 3units</t>
+  </si>
+  <si>
+    <t>Sparse Categorical</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Layer 3 Units</t>
+  </si>
+  <si>
+    <t>Activation 3</t>
+  </si>
+  <si>
+    <t>Activation 2</t>
+  </si>
+  <si>
+    <t>Activation 1</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,13 +323,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -273,12 +382,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,23 +708,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4FB994-43F2-6F4D-932B-6A7EEBC915CF}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="6" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -617,7 +733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -636,11 +752,11 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -659,11 +775,11 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -682,11 +798,14 @@
       <c r="F4" s="1">
         <v>0.76</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -705,11 +824,11 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -717,7 +836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -736,11 +855,11 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -759,11 +878,11 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -782,11 +901,14 @@
       <c r="F10" s="1">
         <v>0.76</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -805,19 +927,19 @@
       <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -836,11 +958,13 @@
       <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="3"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -859,11 +983,13 @@
       <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="3"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -882,11 +1008,13 @@
       <c r="F16">
         <v>0.66</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="3"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -905,19 +1033,21 @@
       <c r="F17" t="s">
         <v>53</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="H17" s="3"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -927,7 +1057,7 @@
       <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E21" t="s">
@@ -940,7 +1070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -950,7 +1080,7 @@
       <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E22" t="s">
@@ -963,7 +1093,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -973,7 +1103,7 @@
       <c r="C23">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>0.71</v>
       </c>
       <c r="E23">
@@ -986,7 +1116,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -996,7 +1126,7 @@
       <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E24" t="s">
@@ -1007,6 +1137,478 @@
       </c>
       <c r="G24" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <v>54</v>
+      </c>
+      <c r="K29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30">
+        <v>54.95</v>
+      </c>
+      <c r="K30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31">
+        <v>53.96</v>
+      </c>
+      <c r="K31" t="s">
+        <v>76</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32">
+        <v>63.69</v>
+      </c>
+      <c r="J32">
+        <v>0.76</v>
+      </c>
+      <c r="K32" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" t="s">
+        <v>72</v>
+      </c>
+      <c r="J36" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>124</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37">
+        <v>60.25</v>
+      </c>
+      <c r="J37">
+        <v>-8375.76</v>
+      </c>
+      <c r="K37" t="s">
+        <v>76</v>
+      </c>
+      <c r="L37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38">
+        <v>60.5</v>
+      </c>
+      <c r="J38">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="K38" t="s">
+        <v>81</v>
+      </c>
+      <c r="L38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" s="8">
+        <v>64</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="8">
+        <v>16</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39">
+        <v>63.5</v>
+      </c>
+      <c r="J39">
+        <v>0.73</v>
+      </c>
+      <c r="K39" t="s">
+        <v>81</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" s="8">
+        <v>64</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="8">
+        <v>16</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40">
+        <v>62.5</v>
+      </c>
+      <c r="J40">
+        <v>0.75</v>
+      </c>
+      <c r="K40" t="s">
+        <v>81</v>
+      </c>
+      <c r="L40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41">
+        <v>65.239999999999995</v>
+      </c>
+      <c r="J41">
+        <v>0.74</v>
+      </c>
+      <c r="K41" t="s">
+        <v>81</v>
+      </c>
+      <c r="L41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Model Tracker.xlsx
+++ b/Resources/Model Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smith/Desktop/GitHub Repos/Wine-Quality-Snobs/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ED5395-011C-D14A-954E-F40BBEF71FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD7EBC7-9C70-4249-B0E4-21722C18C840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15840" yWindow="2780" windowWidth="28040" windowHeight="17440" xr2:uid="{951ABD57-AA22-DF4F-B64E-CD7AECC104B9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
   <si>
     <t>Model</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>sigmoid</t>
+  </si>
+  <si>
+    <t>Red Neural Model Trials (50 Epochs)</t>
   </si>
   <si>
     <t>Compile Crossentropy</t>
@@ -711,7 +714,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:H32"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,7 +729,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -752,7 +755,7 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -775,7 +778,7 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -798,11 +801,10 @@
       <c r="F4" s="1">
         <v>0.76</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>0.77</v>
+      </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>0.77</v>
-      </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -824,12 +826,12 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
@@ -855,7 +857,7 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -878,7 +880,7 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="I9" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -901,11 +903,10 @@
       <c r="F10" s="1">
         <v>0.76</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>0.81</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <v>0.81</v>
-      </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -927,7 +928,7 @@
       <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="I11" t="s">
+      <c r="G11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -961,7 +962,7 @@
       <c r="G14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="7"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -986,7 +987,7 @@
       <c r="G15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="7"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1011,7 +1012,7 @@
       <c r="G16" s="3">
         <v>0.74</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="7"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1036,7 +1037,7 @@
       <c r="G17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="7"/>
       <c r="J17" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1141,7 +1142,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1152,19 +1153,19 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
       </c>
       <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
         <v>85</v>
-      </c>
-      <c r="F27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" t="s">
-        <v>84</v>
       </c>
       <c r="H27" t="s">
         <v>70</v>
@@ -1173,13 +1174,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1199,10 +1200,10 @@
         <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s">
         <v>74</v>
@@ -1212,7 +1213,7 @@
       </c>
       <c r="J28" s="4"/>
       <c r="K28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L28">
         <v>50</v>
@@ -1235,10 +1236,10 @@
         <v>73</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s">
         <v>74</v>
@@ -1247,7 +1248,7 @@
         <v>54</v>
       </c>
       <c r="K29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L29">
         <v>50</v>
@@ -1270,10 +1271,10 @@
         <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s">
         <v>74</v>
@@ -1282,7 +1283,7 @@
         <v>54.95</v>
       </c>
       <c r="K30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L30">
         <v>50</v>
@@ -1305,10 +1306,10 @@
         <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
         <v>74</v>
@@ -1317,7 +1318,7 @@
         <v>53.96</v>
       </c>
       <c r="K31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L31">
         <v>50</v>
@@ -1340,13 +1341,13 @@
         <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32">
         <v>63.69</v>
@@ -1355,7 +1356,7 @@
         <v>0.76</v>
       </c>
       <c r="K32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L32">
         <v>50</v>
@@ -1363,7 +1364,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1374,19 +1375,19 @@
         <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
       </c>
       <c r="E36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s">
         <v>85</v>
-      </c>
-      <c r="F36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" t="s">
-        <v>84</v>
       </c>
       <c r="H36" t="s">
         <v>70</v>
@@ -1395,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1421,10 +1422,10 @@
         <v>73</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s">
         <v>74</v>
@@ -1436,7 +1437,7 @@
         <v>-8375.76</v>
       </c>
       <c r="K37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L37">
         <v>50</v>
@@ -1459,13 +1460,13 @@
         <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I38">
         <v>60.5</v>
@@ -1474,7 +1475,7 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="K38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L38">
         <v>50</v>
@@ -1497,13 +1498,13 @@
         <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I39">
         <v>63.5</v>
@@ -1512,7 +1513,7 @@
         <v>0.73</v>
       </c>
       <c r="K39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L39">
         <v>20</v>
@@ -1535,13 +1536,13 @@
         <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I40">
         <v>62.5</v>
@@ -1550,7 +1551,7 @@
         <v>0.75</v>
       </c>
       <c r="K40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L40">
         <v>50</v>
@@ -1573,13 +1574,13 @@
         <v>73</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I41">
         <v>65.239999999999995</v>
@@ -1588,7 +1589,7 @@
         <v>0.74</v>
       </c>
       <c r="K41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L41">
         <v>50</v>

--- a/Resources/Model Tracker.xlsx
+++ b/Resources/Model Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smith/Desktop/GitHub Repos/Wine-Quality-Snobs/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Serena/Desktop/Github_Lab/Wine-Quality-Snobs/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD7EBC7-9C70-4249-B0E4-21722C18C840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAF703A-BA59-8C44-B6A6-886BCE6F092F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="2780" windowWidth="28040" windowHeight="17440" xr2:uid="{951ABD57-AA22-DF4F-B64E-CD7AECC104B9}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28220" windowHeight="20340" xr2:uid="{951ABD57-AA22-DF4F-B64E-CD7AECC104B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="121">
   <si>
     <t>Model</t>
   </si>
@@ -159,13 +159,7 @@
     <t>XG Boost -3</t>
   </si>
   <si>
-    <t>0/1</t>
-  </si>
-  <si>
     <t>0-1-2</t>
-  </si>
-  <si>
-    <t>0-1</t>
   </si>
   <si>
     <t>0.75/0.64/0.49</t>
@@ -312,6 +306,108 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>0/1 - outliers included</t>
+  </si>
+  <si>
+    <t>0/1 - outliers removed</t>
+  </si>
+  <si>
+    <t>0.66/0.84</t>
+  </si>
+  <si>
+    <t>0.68/0.83</t>
+  </si>
+  <si>
+    <t>0.55/0.82</t>
+  </si>
+  <si>
+    <t>0.66/0.77</t>
+  </si>
+  <si>
+    <t>N_estimators</t>
+  </si>
+  <si>
+    <t>0.75/0.84</t>
+  </si>
+  <si>
+    <t>0.60/0.81</t>
+  </si>
+  <si>
+    <t>0.63/0.79</t>
+  </si>
+  <si>
+    <t>0.64/0.84</t>
+  </si>
+  <si>
+    <t>0.69/0.81</t>
+  </si>
+  <si>
+    <t>0.73/0.84</t>
+  </si>
+  <si>
+    <t>0.71/0.87</t>
+  </si>
+  <si>
+    <t>0.77/0.84</t>
+  </si>
+  <si>
+    <t>Extra Trees -2</t>
+  </si>
+  <si>
+    <t>bootstrap</t>
+  </si>
+  <si>
+    <t>0.75/0.88</t>
+  </si>
+  <si>
+    <t>0.85/0.83</t>
+  </si>
+  <si>
+    <t>0.72/0.87</t>
+  </si>
+  <si>
+    <t>0.84/0.82</t>
+  </si>
+  <si>
+    <t>0.75/0.82</t>
+  </si>
+  <si>
+    <t>0.71/0.78</t>
+  </si>
+  <si>
+    <t>0.73/0.77</t>
+  </si>
+  <si>
+    <t>0.67/0.73</t>
+  </si>
+  <si>
+    <t>0.66/0.74</t>
+  </si>
+  <si>
+    <t>0.76/0.83</t>
+  </si>
+  <si>
+    <t>0.80/0.80</t>
+  </si>
+  <si>
+    <t>0.67/0.75</t>
+  </si>
+  <si>
+    <t>0.72/0.79</t>
+  </si>
+  <si>
+    <t>0.74/0.81</t>
+  </si>
+  <si>
+    <t>0.76/0.79</t>
+  </si>
+  <si>
+    <t>0.78/0.78</t>
+  </si>
+  <si>
+    <t>0.80/0.79</t>
   </si>
 </sst>
 </file>
@@ -356,12 +452,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -369,6 +459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,18 +481,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4FB994-43F2-6F4D-932B-6A7EEBC915CF}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,20 +822,20 @@
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="10" width="20.33203125" customWidth="1"/>
     <col min="11" max="11" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -750,16 +849,19 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -772,17 +874,17 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -795,19 +897,18 @@
       <c r="D4" s="1">
         <v>0.79</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.72</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.76</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.77</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -820,796 +921,1394 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G18" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="I18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="I19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B20" s="1">
         <v>0.76</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C20" s="1">
         <v>0.74</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D20" s="1">
         <v>0.82</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E20" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="F20" s="1">
         <v>0.75</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G20" s="1">
         <v>0.76</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H20" s="1">
         <v>0.81</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="I20" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G21" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="I21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22" s="8">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>1000</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <v>1000</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C34" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D34" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E34" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F34" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>0.67</v>
-      </c>
-      <c r="C16">
-        <v>0.63</v>
-      </c>
-      <c r="D16">
-        <v>0.72</v>
-      </c>
-      <c r="E16">
-        <v>0.64</v>
-      </c>
-      <c r="F16">
-        <v>0.66</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>0.66</v>
-      </c>
-      <c r="C23">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="E23">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F23">
-        <v>0.61</v>
-      </c>
-      <c r="G23">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>124</v>
-      </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28">
-        <v>64</v>
-      </c>
-      <c r="E28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>124</v>
-      </c>
-      <c r="C29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29">
-        <v>64</v>
-      </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29">
-        <v>54</v>
-      </c>
-      <c r="K29" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30">
-        <v>16</v>
-      </c>
-      <c r="E30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" t="s">
-        <v>74</v>
-      </c>
-      <c r="I30">
-        <v>54.95</v>
-      </c>
-      <c r="K30" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31">
-        <v>53.96</v>
-      </c>
-      <c r="K31" t="s">
-        <v>77</v>
-      </c>
-      <c r="L31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>64</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" t="s">
-        <v>78</v>
-      </c>
-      <c r="I32">
-        <v>63.69</v>
-      </c>
-      <c r="J32">
-        <v>0.76</v>
-      </c>
-      <c r="K32" t="s">
-        <v>82</v>
-      </c>
-      <c r="L32">
-        <v>50</v>
-      </c>
+      <c r="H34" s="6"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>75</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>0.67</v>
+      </c>
+      <c r="C36">
+        <v>0.63</v>
+      </c>
+      <c r="D36">
+        <v>0.72</v>
+      </c>
+      <c r="E36">
+        <v>0.64</v>
+      </c>
+      <c r="F36">
+        <v>0.66</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>0.66</v>
+      </c>
+      <c r="C43">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="E43">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F43">
+        <v>0.61</v>
+      </c>
+      <c r="G43">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+      <c r="K47" t="s">
+        <v>74</v>
+      </c>
+      <c r="L47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
         <v>71</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D48">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" t="s">
+        <v>72</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" t="s">
+        <v>75</v>
+      </c>
+      <c r="L48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49">
+        <v>54</v>
+      </c>
+      <c r="K49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50">
+        <v>54.95</v>
+      </c>
+      <c r="K50" t="s">
+        <v>75</v>
+      </c>
+      <c r="L50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>64</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51">
+        <v>53.96</v>
+      </c>
+      <c r="K51" t="s">
+        <v>75</v>
+      </c>
+      <c r="L51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52">
+        <v>63.69</v>
+      </c>
+      <c r="J52">
+        <v>0.76</v>
+      </c>
+      <c r="K52" t="s">
+        <v>80</v>
+      </c>
+      <c r="L52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" t="s">
         <v>68</v>
       </c>
-      <c r="C36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="I56" t="s">
+        <v>70</v>
+      </c>
+      <c r="J56" t="s">
+        <v>78</v>
+      </c>
+      <c r="K56" t="s">
+        <v>74</v>
+      </c>
+      <c r="L56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57">
+        <v>64</v>
+      </c>
+      <c r="E57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" t="s">
         <v>86</v>
       </c>
-      <c r="F36" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" t="s">
-        <v>70</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="G57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H57" t="s">
         <v>72</v>
       </c>
-      <c r="J36" t="s">
+      <c r="I57">
+        <v>60.25</v>
+      </c>
+      <c r="J57">
+        <v>-8375.76</v>
+      </c>
+      <c r="K57" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58">
+        <v>60.5</v>
+      </c>
+      <c r="J58">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="K58" t="s">
         <v>80</v>
       </c>
-      <c r="K36" t="s">
-        <v>76</v>
-      </c>
-      <c r="L36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>124</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37">
+      <c r="L58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" s="7">
         <v>64</v>
       </c>
-      <c r="E37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" t="s">
-        <v>88</v>
-      </c>
-      <c r="H37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I37">
-        <v>60.25</v>
-      </c>
-      <c r="J37">
-        <v>-8375.76</v>
-      </c>
-      <c r="K37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L37">
+      <c r="C59" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="7">
+        <v>16</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59" t="s">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59">
+        <v>63.5</v>
+      </c>
+      <c r="J59">
+        <v>0.73</v>
+      </c>
+      <c r="K59" t="s">
+        <v>80</v>
+      </c>
+      <c r="L59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60" s="7">
+        <v>64</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="7">
+        <v>16</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60">
+        <v>62.5</v>
+      </c>
+      <c r="J60">
+        <v>0.75</v>
+      </c>
+      <c r="K60" t="s">
+        <v>80</v>
+      </c>
+      <c r="L60">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <v>124</v>
-      </c>
-      <c r="C38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38">
-        <v>64</v>
-      </c>
-      <c r="E38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" t="s">
-        <v>81</v>
-      </c>
-      <c r="I38">
-        <v>60.5</v>
-      </c>
-      <c r="J38">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="K38" t="s">
-        <v>82</v>
-      </c>
-      <c r="L38">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>16</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61">
+        <v>65.239999999999995</v>
+      </c>
+      <c r="J61">
+        <v>0.74</v>
+      </c>
+      <c r="K61" t="s">
+        <v>80</v>
+      </c>
+      <c r="L61">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39" s="8">
-        <v>64</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="8">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
         <v>16</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39">
-        <v>63.5</v>
-      </c>
-      <c r="J39">
-        <v>0.73</v>
-      </c>
-      <c r="K39" t="s">
-        <v>82</v>
-      </c>
-      <c r="L39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="C62" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62">
         <v>4</v>
       </c>
-      <c r="B40" s="8">
-        <v>64</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="8">
-        <v>16</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40" t="s">
-        <v>81</v>
-      </c>
-      <c r="I40">
-        <v>62.5</v>
-      </c>
-      <c r="J40">
-        <v>0.75</v>
-      </c>
-      <c r="K40" t="s">
-        <v>82</v>
-      </c>
-      <c r="L40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>5</v>
-      </c>
-      <c r="B41">
-        <v>16</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" t="s">
-        <v>88</v>
-      </c>
-      <c r="H41" t="s">
-        <v>81</v>
-      </c>
-      <c r="I41">
-        <v>65.239999999999995</v>
-      </c>
-      <c r="J41">
-        <v>0.74</v>
-      </c>
-      <c r="K41" t="s">
-        <v>82</v>
-      </c>
-      <c r="L41">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>6</v>
-      </c>
-      <c r="B42">
-        <v>16</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>73</v>
+      <c r="E62" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
